--- a/sent_certificates.xlsx
+++ b/sent_certificates.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E43A6B6E-E1DD-461B-9A50-48D4361C7952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C677F-A64F-4EEA-BE1D-37C2EFD37BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{FF815803-7ED9-4807-B4F9-C67F83E68B08}"/>
+    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="9970" xr2:uid="{FF815803-7ED9-4807-B4F9-C67F83E68B08}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sent certificates" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
